--- a/관련자료/7. 참고자료/부산 관광정보.xlsx
+++ b/관련자료/7. 참고자료/부산 관광정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\관련자료\7. 참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475F1D1-7DD8-42A3-88D5-901D10A4A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61B5EDA-9753-4B67-8A90-3105A53F8016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4821B942-049C-4C57-B382-A244652A17DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{4821B942-049C-4C57-B382-A244652A17DB}"/>
   </bookViews>
   <sheets>
     <sheet name="기본정보" sheetId="2" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
   <si>
     <t>부산도보여행</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,17 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카카오맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홈페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LNG, LAT</t>
-  </si>
-  <si>
     <t>MIDDLE_SIZE_RM1</t>
   </si>
   <si>
@@ -151,14 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이용안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부산광역시_부산도보여행정보 서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +235,34 @@
   </si>
   <si>
     <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_IMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용/교통 안내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C004075-3FD4-4EA0-B5F8-9286B0A3798E}">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -744,66 +747,66 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D711C-FC81-474B-B8F9-229AD63221EF}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -830,238 +833,257 @@
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.4140625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.08203125" customWidth="1"/>
+    <col min="22" max="22" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>27</v>
@@ -1070,56 +1092,62 @@
         <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>27</v>
@@ -1128,112 +1156,124 @@
         <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>27</v>
@@ -1242,56 +1282,62 @@
         <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>27</v>
@@ -1300,30 +1346,35 @@
         <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="V9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="R1:T1"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:V1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
